--- a/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 1.xlsx
+++ b/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levkina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8444FBB8-101A-F649-B23C-7C86C48C11D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,12 @@
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="711">
   <si>
     <t>Отчет от</t>
   </si>
@@ -2162,12 +2163,15 @@
   </si>
   <si>
     <t>Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125 кг, ф/п</t>
+  </si>
+  <si>
+    <t>6000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -2379,18 +2383,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2398,7 +2402,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="54">
     <dxf>
@@ -3178,19 +3182,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK283"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>160</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>179</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>302</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>420</v>
       </c>
@@ -5502,7 +5506,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>422</v>
       </c>
@@ -5528,7 +5532,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>44193</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>44194</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>44195</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>44196</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>44197</v>
       </c>
@@ -5700,7 +5704,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>44198</v>
       </c>
@@ -5783,7 +5787,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>44199</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>44200</v>
       </c>
@@ -5898,7 +5902,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>44201</v>
       </c>
@@ -6041,7 +6045,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>44202</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>44203</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>44204</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>44205</v>
       </c>
@@ -6499,7 +6503,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>44206</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>44207</v>
       </c>
@@ -6548,7 +6552,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>44208</v>
       </c>
@@ -6712,7 +6716,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>44209</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>44210</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>44211</v>
       </c>
@@ -6991,7 +6995,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>44212</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>44213</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>44214</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>44215</v>
       </c>
@@ -7425,7 +7429,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A32" s="20">
         <v>44216</v>
       </c>
@@ -7523,7 +7527,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>44217</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>44218</v>
       </c>
@@ -7650,7 +7654,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>44219</v>
       </c>
@@ -7859,7 +7863,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>44220</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>44221</v>
       </c>
@@ -8001,7 +8005,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
         <v>44222</v>
       </c>
@@ -8138,7 +8142,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
         <v>44223</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>44224</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>44225</v>
       </c>
@@ -8417,7 +8421,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
         <v>44226</v>
       </c>
@@ -8557,7 +8561,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A43" s="20">
         <v>44227</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A44" s="20">
         <v>44228</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="20">
         <v>44229</v>
       </c>
@@ -8779,7 +8783,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A46" s="20">
         <v>44230</v>
       </c>
@@ -8910,7 +8914,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A47" s="20">
         <v>44231</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
         <v>44232</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
         <v>44233</v>
       </c>
@@ -9177,7 +9181,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>44234</v>
       </c>
@@ -9284,7 +9288,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="51" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>44235</v>
       </c>
@@ -9301,7 +9305,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="52" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A52" s="20">
         <v>44236</v>
       </c>
@@ -9315,7 +9319,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A53" s="20">
         <v>44237</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="54" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
         <v>44238</v>
       </c>
@@ -9337,7 +9341,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="55" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
         <v>44239</v>
       </c>
@@ -9348,7 +9352,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="56" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A56" s="20">
         <v>44240</v>
       </c>
@@ -9359,7 +9363,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="57" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A57" s="20">
         <v>44241</v>
       </c>
@@ -9370,7 +9374,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="58" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A58" s="20">
         <v>44242</v>
       </c>
@@ -9381,7 +9385,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="59" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A59" s="20">
         <v>44243</v>
       </c>
@@ -9392,7 +9396,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="60" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A60" s="20">
         <v>44244</v>
       </c>
@@ -9403,7 +9407,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="61" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
         <v>44245</v>
       </c>
@@ -9414,7 +9418,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="62" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>44246</v>
       </c>
@@ -9425,7 +9429,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="63" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A63" s="20">
         <v>44247</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="64" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A64" s="20">
         <v>44248</v>
       </c>
@@ -9447,7 +9451,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="65" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A65" s="20">
         <v>44249</v>
       </c>
@@ -9458,7 +9462,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="66" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A66" s="20">
         <v>44250</v>
       </c>
@@ -9469,7 +9473,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="67" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A67" s="20">
         <v>44251</v>
       </c>
@@ -9480,7 +9484,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="68" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A68" s="20">
         <v>44252</v>
       </c>
@@ -9491,7 +9495,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="69" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A69" s="20">
         <v>44253</v>
       </c>
@@ -9502,7 +9506,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="70" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A70" s="20">
         <v>44254</v>
       </c>
@@ -9513,7 +9517,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="71" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A71" s="20">
         <v>44255</v>
       </c>
@@ -9524,7 +9528,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="72" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A72" s="20">
         <v>44256</v>
       </c>
@@ -9535,7 +9539,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="73" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A73" s="20">
         <v>44257</v>
       </c>
@@ -9546,7 +9550,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="74" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A74" s="20">
         <v>44258</v>
       </c>
@@ -9557,7 +9561,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="75" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A75" s="20">
         <v>44259</v>
       </c>
@@ -9568,7 +9572,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="76" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A76" s="20">
         <v>44260</v>
       </c>
@@ -9579,7 +9583,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="77" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A77" s="20">
         <v>44261</v>
       </c>
@@ -9590,7 +9594,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="78" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A78" s="20">
         <v>44262</v>
       </c>
@@ -9601,7 +9605,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="79" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A79" s="20">
         <v>44263</v>
       </c>
@@ -9612,10 +9616,10 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="80" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>427</v>
       </c>
@@ -9986,7 +9990,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="82" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>428</v>
       </c>
@@ -10372,7 +10376,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>429</v>
       </c>
@@ -10404,19 +10408,19 @@
         <v>429</v>
       </c>
     </row>
-    <row r="84" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="DW84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="DW85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>430</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>431</v>
       </c>
@@ -10447,10 +10451,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>432</v>
       </c>
@@ -10824,7 +10828,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="90" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>428</v>
       </c>
@@ -10835,7 +10839,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>429</v>
       </c>
@@ -10846,19 +10850,19 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="DW92" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="DW93" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>430</v>
       </c>
@@ -10869,7 +10873,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="95" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>431</v>
       </c>
@@ -10880,10 +10884,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="96" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>437</v>
       </c>
@@ -11257,7 +11261,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>428</v>
       </c>
@@ -11268,7 +11272,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>429</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>0</v>
       </c>
@@ -11290,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>0</v>
       </c>
@@ -11301,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>430</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="103" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>431</v>
       </c>
@@ -11320,10 +11324,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>438</v>
       </c>
@@ -11697,7 +11701,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="106" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>428</v>
       </c>
@@ -12071,7 +12075,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="107" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>429</v>
       </c>
@@ -12445,7 +12449,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>0</v>
       </c>
@@ -12819,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -13193,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>430</v>
       </c>
@@ -13567,7 +13571,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>431</v>
       </c>
@@ -13941,10 +13945,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>439</v>
       </c>
@@ -14321,10 +14325,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>440</v>
       </c>
@@ -14710,10 +14714,10 @@
         <v>440</v>
       </c>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>441</v>
       </c>
@@ -14724,7 +14728,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>442</v>
       </c>
@@ -15092,7 +15096,7 @@
         <v>30229.94000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="DV119" s="1" t="s">
         <v>424</v>
@@ -15101,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>424</v>
       </c>
@@ -15469,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>424</v>
       </c>
@@ -15840,7 +15844,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="DW122" s="1">
         <v>0</v>
@@ -15849,7 +15853,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="123" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>424</v>
       </c>
@@ -16223,7 +16227,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="DW124" s="1">
         <v>0</v>
@@ -16232,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>443</v>
       </c>
@@ -16609,7 +16613,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>444</v>
       </c>
@@ -16986,13 +16990,13 @@
         <v>444</v>
       </c>
     </row>
-    <row r="127" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="DW127" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>445</v>
       </c>
@@ -17375,10 +17379,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="129" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>446</v>
       </c>
@@ -17407,7 +17411,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>453</v>
       </c>
@@ -17445,7 +17449,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="132" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>454</v>
       </c>
@@ -17483,7 +17487,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="133" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>424</v>
       </c>
@@ -17491,7 +17495,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="134" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>455</v>
       </c>
@@ -17517,10 +17521,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="135" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>456</v>
       </c>
@@ -17546,10 +17550,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="137" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>457</v>
       </c>
@@ -17572,10 +17576,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="139" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="I140" s="1">
         <v>96</v>
@@ -17626,7 +17630,7 @@
         <v>9918.9599999999991</v>
       </c>
     </row>
-    <row r="141" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>458</v>
       </c>
@@ -18009,7 +18013,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="142" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>459</v>
       </c>
@@ -18020,7 +18024,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="143" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>460</v>
       </c>
@@ -18295,7 +18299,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="144" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>461</v>
       </c>
@@ -18570,19 +18574,19 @@
         <v>461</v>
       </c>
     </row>
-    <row r="145" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="DW145" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="DW146" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>462</v>
       </c>
@@ -18950,7 +18954,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="148" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>463</v>
       </c>
@@ -19318,7 +19322,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="149" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>464</v>
       </c>
@@ -19686,7 +19690,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="150" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>465</v>
       </c>
@@ -20054,7 +20058,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="151" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>466</v>
       </c>
@@ -20422,7 +20426,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="152" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>467</v>
       </c>
@@ -20790,7 +20794,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="153" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>468</v>
       </c>
@@ -21158,7 +21162,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="154" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>469</v>
       </c>
@@ -21526,10 +21530,10 @@
         <v>469</v>
       </c>
     </row>
-    <row r="155" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>470</v>
       </c>
@@ -21912,7 +21916,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>459</v>
       </c>
@@ -22280,7 +22284,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="158" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>460</v>
       </c>
@@ -22648,7 +22652,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="159" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>461</v>
       </c>
@@ -23016,7 +23020,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="160" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="1">
         <v>0</v>
@@ -23370,7 +23374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="1">
         <v>0</v>
@@ -23724,7 +23728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>471</v>
       </c>
@@ -24092,7 +24096,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="163" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>472</v>
       </c>
@@ -24460,7 +24464,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="164" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>473</v>
       </c>
@@ -24828,7 +24832,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="165" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>474</v>
       </c>
@@ -25196,7 +25200,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="166" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>475</v>
       </c>
@@ -25564,7 +25568,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="167" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>476</v>
       </c>
@@ -25932,7 +25936,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="168" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>477</v>
       </c>
@@ -26300,7 +26304,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="169" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>478</v>
       </c>
@@ -26668,10 +26672,10 @@
         <v>478</v>
       </c>
     </row>
-    <row r="170" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>479</v>
       </c>
@@ -27057,7 +27061,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="172" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A172" s="20">
         <v>43938</v>
       </c>
@@ -27068,7 +27072,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="173" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A173" s="20">
         <v>43939</v>
       </c>
@@ -27079,7 +27083,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="174" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A174" s="20">
         <v>43940</v>
       </c>
@@ -27090,7 +27094,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="175" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="DW175" s="1">
         <v>0</v>
@@ -27099,7 +27103,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="176" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="DW176" s="1">
         <v>0</v>
@@ -27108,7 +27112,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="177" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>471</v>
       </c>
@@ -27119,7 +27123,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="178" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>472</v>
       </c>
@@ -27130,7 +27134,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="179" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>473</v>
       </c>
@@ -27141,7 +27145,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="180" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>474</v>
       </c>
@@ -27152,7 +27156,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>475</v>
       </c>
@@ -27163,7 +27167,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="182" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>476</v>
       </c>
@@ -27174,7 +27178,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="183" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>477</v>
       </c>
@@ -27185,7 +27189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="184" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>478</v>
       </c>
@@ -27196,10 +27200,10 @@
         <v>478</v>
       </c>
     </row>
-    <row r="185" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
     </row>
-    <row r="186" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>481</v>
       </c>
@@ -27585,7 +27589,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="187" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>459</v>
       </c>
@@ -27959,7 +27963,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="188" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>460</v>
       </c>
@@ -28333,7 +28337,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="189" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>461</v>
       </c>
@@ -28707,7 +28711,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="190" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="1">
         <v>0</v>
@@ -29076,7 +29080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="1">
         <v>0</v>
@@ -29445,7 +29449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>482</v>
       </c>
@@ -29819,7 +29823,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>483</v>
       </c>
@@ -30193,7 +30197,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>484</v>
       </c>
@@ -30567,7 +30571,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="195" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>485</v>
       </c>
@@ -30941,7 +30945,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="196" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>486</v>
       </c>
@@ -31315,7 +31319,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="197" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>487</v>
       </c>
@@ -31689,7 +31693,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="198" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>488</v>
       </c>
@@ -32063,7 +32067,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="199" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>489</v>
       </c>
@@ -32437,10 +32441,10 @@
         <v>489</v>
       </c>
     </row>
-    <row r="200" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
     </row>
-    <row r="201" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>490</v>
       </c>
@@ -32766,7 +32770,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="202" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>491</v>
       </c>
@@ -32777,7 +32781,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="203" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>492</v>
       </c>
@@ -33160,7 +33164,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="204" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>493</v>
       </c>
@@ -33543,7 +33547,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="205" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>494</v>
       </c>
@@ -33926,7 +33930,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="206" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>495</v>
       </c>
@@ -34309,7 +34313,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="207" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>496</v>
       </c>
@@ -34317,7 +34321,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="208" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>497</v>
       </c>
@@ -34682,7 +34686,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="209" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>498</v>
       </c>
@@ -35062,7 +35066,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="210" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>499</v>
       </c>
@@ -35442,7 +35446,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="211" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>500</v>
       </c>
@@ -35450,7 +35454,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>501</v>
       </c>
@@ -35830,7 +35834,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="213" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>502</v>
       </c>
@@ -36210,10 +36214,10 @@
         <v>502</v>
       </c>
     </row>
-    <row r="214" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
     </row>
-    <row r="215" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>506</v>
       </c>
@@ -36596,7 +36600,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="216" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>428</v>
       </c>
@@ -36940,7 +36944,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="217" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>429</v>
       </c>
@@ -37200,7 +37204,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>0</v>
       </c>
@@ -37214,7 +37218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>0</v>
       </c>
@@ -37228,7 +37232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>430</v>
       </c>
@@ -37245,7 +37249,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="221" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>431</v>
       </c>
@@ -37256,10 +37260,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="222" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
     </row>
-    <row r="223" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>507</v>
       </c>
@@ -37633,7 +37637,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="224" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>508</v>
       </c>
@@ -38016,7 +38020,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="225" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>509</v>
       </c>
@@ -38399,7 +38403,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="226" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>510</v>
       </c>
@@ -38773,7 +38777,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="227" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>511</v>
       </c>
@@ -39147,7 +39151,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="228" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>512</v>
       </c>
@@ -39521,7 +39525,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="229" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>513</v>
       </c>
@@ -39895,15 +39899,15 @@
         <v>513</v>
       </c>
     </row>
-    <row r="230" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="232" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>515</v>
       </c>
@@ -40271,7 +40275,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="233" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>516</v>
       </c>
@@ -40639,7 +40643,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="234" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>518</v>
       </c>
@@ -41007,7 +41011,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="235" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>520</v>
       </c>
@@ -41375,7 +41379,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="236" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>522</v>
       </c>
@@ -41743,7 +41747,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="237" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>523</v>
       </c>
@@ -42111,16 +42115,16 @@
         <v>521</v>
       </c>
     </row>
-    <row r="238" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
     </row>
-    <row r="241" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>524</v>
       </c>
@@ -42359,12 +42363,12 @@
         <v>524</v>
       </c>
     </row>
-    <row r="242" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="243" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="1" t="s">
         <v>148</v>
@@ -42622,7 +42626,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="244" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="E244" s="1">
         <v>1594</v>
@@ -42877,7 +42881,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>148</v>
       </c>
@@ -43122,10 +43126,10 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="246" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="F247" s="1" t="s">
         <v>308</v>
@@ -43296,103 +43300,103 @@
         <v>311</v>
       </c>
     </row>
-    <row r="248" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="1" t="s">
         <v>181</v>
@@ -43539,7 +43543,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="281" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>619</v>
       </c>
@@ -43688,7 +43692,7 @@
         <v>36835.518999999993</v>
       </c>
     </row>
-    <row r="282" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>620</v>
       </c>
@@ -43780,7 +43784,7 @@
         <v>31195.51</v>
       </c>
     </row>
-    <row r="283" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="1" t="s">
         <v>181</v>
@@ -43827,20 +43831,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>675</v>
       </c>
@@ -43848,7 +43852,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>226</v>
       </c>
@@ -43856,7 +43860,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>225</v>
       </c>
@@ -43864,7 +43868,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>222</v>
       </c>
@@ -43872,7 +43876,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>223</v>
       </c>
@@ -43880,7 +43884,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>224</v>
       </c>
@@ -43888,7 +43892,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>217</v>
       </c>
@@ -43896,7 +43900,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>213</v>
       </c>
@@ -43904,7 +43908,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>220</v>
       </c>
@@ -43912,7 +43916,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>215</v>
       </c>
@@ -43920,7 +43924,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>219</v>
       </c>
@@ -43928,7 +43932,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>228</v>
       </c>
@@ -43936,7 +43940,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>212</v>
       </c>
@@ -43944,7 +43948,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>214</v>
       </c>
@@ -43952,7 +43956,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>541</v>
       </c>
@@ -43960,7 +43964,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>216</v>
       </c>
@@ -43968,7 +43972,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>205</v>
       </c>
@@ -43976,7 +43980,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>210</v>
       </c>
@@ -43984,7 +43988,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>218</v>
       </c>
@@ -43992,7 +43996,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>204</v>
       </c>
@@ -44000,7 +44004,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>211</v>
       </c>
@@ -44008,7 +44012,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>206</v>
       </c>
@@ -44016,7 +44020,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>207</v>
       </c>
@@ -44024,7 +44028,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>208</v>
       </c>
@@ -44032,7 +44036,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>209</v>
       </c>
@@ -44040,7 +44044,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>227</v>
       </c>
@@ -44048,7 +44052,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
         <v>221</v>
       </c>
@@ -44056,7 +44060,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>203</v>
       </c>
@@ -44064,7 +44068,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>196</v>
       </c>
@@ -44072,7 +44076,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>195</v>
       </c>
@@ -44080,7 +44084,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>200</v>
       </c>
@@ -44088,7 +44092,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>198</v>
       </c>
@@ -44096,7 +44100,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>197</v>
       </c>
@@ -44104,7 +44108,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>202</v>
       </c>
@@ -44112,7 +44116,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>565</v>
       </c>
@@ -44120,7 +44124,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
         <v>201</v>
       </c>
@@ -44128,7 +44132,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>199</v>
       </c>
@@ -44143,55 +44147,55 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.81640625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>639</v>
       </c>
@@ -44203,7 +44207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK71"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -44212,25 +44216,25 @@
       <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="4" customWidth="1"/>
-    <col min="13" max="16" width="9.08984375" style="1" customWidth="1"/>
-    <col min="17" max="22" width="9.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="4" customWidth="1"/>
+    <col min="13" max="16" width="9.1640625" style="1" customWidth="1"/>
+    <col min="17" max="22" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>621</v>
       </c>
@@ -44272,8 +44276,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>632</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -44321,9 +44325,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="39"/>
+      <c r="B3" s="43" t="s">
         <v>635</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -44348,8 +44352,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>636</v>
       </c>
       <c r="B4" s="41" t="s">
@@ -44394,9 +44398,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="25" t="s">
         <v>163</v>
       </c>
@@ -44419,9 +44423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
-      <c r="B6" s="40"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="25" t="s">
         <v>166</v>
       </c>
@@ -44444,9 +44448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="42" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -44471,9 +44475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="26" t="s">
         <v>163</v>
       </c>
@@ -44496,8 +44500,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
         <v>639</v>
       </c>
       <c r="B11" s="37" t="s">
@@ -44542,9 +44546,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="38" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="43" t="s">
         <v>635</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -44569,9 +44573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="24" t="s">
         <v>165</v>
       </c>
@@ -44594,9 +44598,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="24" t="s">
         <v>170</v>
       </c>
@@ -44619,9 +44623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="24" t="s">
         <v>163</v>
       </c>
@@ -44644,9 +44648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="24" t="s">
         <v>167</v>
       </c>
@@ -44669,9 +44673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="24" t="s">
         <v>165</v>
       </c>
@@ -44694,9 +44698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="24" t="s">
         <v>171</v>
       </c>
@@ -44719,9 +44723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="24" t="s">
         <v>165</v>
       </c>
@@ -44744,9 +44748,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="24" t="s">
         <v>164</v>
       </c>
@@ -44769,8 +44773,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
         <v>642</v>
       </c>
       <c r="B23" s="44" t="s">
@@ -44815,9 +44819,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="27" t="s">
         <v>164</v>
       </c>
@@ -44840,9 +44844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="28" t="s">
         <v>172</v>
       </c>
@@ -44865,9 +44869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="42"/>
-      <c r="B26" s="40"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="28" t="s">
         <v>172</v>
       </c>
@@ -44890,8 +44894,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
       <c r="B27" s="37" t="s">
         <v>633</v>
       </c>
@@ -44917,9 +44921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="22" t="s">
         <v>161</v>
       </c>
@@ -44942,9 +44946,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="22" t="s">
         <v>163</v>
       </c>
@@ -44967,9 +44971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="22" t="s">
         <v>161</v>
       </c>
@@ -44992,9 +44996,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="22" t="s">
         <v>166</v>
       </c>
@@ -45017,9 +45021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="22" t="s">
         <v>161</v>
       </c>
@@ -45042,9 +45046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="42"/>
-      <c r="B33" s="40"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="22" t="s">
         <v>161</v>
       </c>
@@ -45067,9 +45071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="42"/>
-      <c r="B34" s="38" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="43" t="s">
         <v>635</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -45094,9 +45098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="24" t="s">
         <v>168</v>
       </c>
@@ -45119,9 +45123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="24" t="s">
         <v>166</v>
       </c>
@@ -45144,9 +45148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="24" t="s">
         <v>163</v>
       </c>
@@ -45169,9 +45173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="24" t="s">
         <v>164</v>
       </c>
@@ -45194,9 +45198,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="24" t="s">
         <v>164</v>
       </c>
@@ -45219,8 +45223,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="39" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
         <v>645</v>
       </c>
       <c r="B42" s="41" t="s">
@@ -45265,9 +45269,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="25" t="s">
         <v>173</v>
       </c>
@@ -45290,9 +45294,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="25" t="s">
         <v>169</v>
       </c>
@@ -45315,9 +45319,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="25" t="s">
         <v>174</v>
       </c>
@@ -45340,9 +45344,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="25" t="s">
         <v>175</v>
       </c>
@@ -45365,9 +45369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="25" t="s">
         <v>165</v>
       </c>
@@ -45390,9 +45394,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="25" t="s">
         <v>163</v>
       </c>
@@ -45415,9 +45419,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="42"/>
-      <c r="B49" s="40"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="25" t="s">
         <v>167</v>
       </c>
@@ -45440,9 +45444,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="38"/>
+      <c r="B50" s="42" t="s">
         <v>157</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -45467,9 +45471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="26" t="s">
         <v>169</v>
       </c>
@@ -45492,9 +45496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="26" t="s">
         <v>167</v>
       </c>
@@ -45517,9 +45521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="26" t="s">
         <v>175</v>
       </c>
@@ -45542,9 +45546,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="26" t="s">
         <v>174</v>
       </c>
@@ -45567,9 +45571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="26" t="s">
         <v>173</v>
       </c>
@@ -45592,9 +45596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="26" t="s">
         <v>163</v>
       </c>
@@ -45617,8 +45621,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="39" t="s">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="s">
         <v>647</v>
       </c>
       <c r="B59" s="41" t="s">
@@ -45663,8 +45667,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="39" t="s">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="40" t="s">
         <v>649</v>
       </c>
       <c r="B62" s="41" t="s">
@@ -45709,9 +45713,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="42"/>
-      <c r="B63" s="40"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="25" t="s">
         <v>164</v>
       </c>
@@ -45734,9 +45738,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="40"/>
-      <c r="B64" s="43" t="s">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="39"/>
+      <c r="B64" s="42" t="s">
         <v>157</v>
       </c>
       <c r="C64" s="26" t="s">
@@ -45761,8 +45765,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="39" t="s">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="40" t="s">
         <v>649</v>
       </c>
       <c r="B67" s="37" t="s">
@@ -45806,9 +45810,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="22" t="s">
         <v>164</v>
       </c>
@@ -45831,9 +45835,9 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="22" t="s">
         <v>652</v>
       </c>
@@ -45856,9 +45860,9 @@
         <v>-45.9</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="22" t="s">
         <v>164</v>
       </c>
@@ -45881,9 +45885,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="22" t="s">
         <v>652</v>
       </c>
@@ -45908,6 +45912,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="A42:A56"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="B59"/>
@@ -45915,22 +45935,6 @@
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64"/>
     <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -45942,43 +45946,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK123"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>653</v>
       </c>
@@ -46049,7 +46050,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <f t="shared" ref="A2:A27" ca="1" si="0">IF(O2="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
         <v>1</v>
@@ -46127,7 +46128,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -46204,7 +46205,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -46281,7 +46282,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -46358,7 +46359,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -46435,7 +46436,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -46512,7 +46513,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
         <f ca="1">IF(O8="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
         <v>1</v>
@@ -46589,7 +46590,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
         <f ca="1">IF(O9="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R9)))))</f>
         <v>1</v>
@@ -46666,7 +46667,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
         <f ca="1">IF(O10="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R10)))))</f>
         <v>1</v>
@@ -46743,7 +46744,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -46818,7 +46819,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -46895,7 +46896,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -46972,7 +46973,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
         <f t="shared" ref="A14" ca="1" si="11">IF(O14="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R14)))))</f>
         <v>2</v>
@@ -47051,7 +47052,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -47126,7 +47127,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -47203,7 +47204,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -47280,7 +47281,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -47355,7 +47356,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -47382,7 +47383,7 @@
         <v>229</v>
       </c>
       <c r="I19" s="32">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="J19" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -47397,7 +47398,7 @@
       </c>
       <c r="P19" s="1">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -47432,7 +47433,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -47463,20 +47464,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="31"/>
+      <c r="M20" s="12" t="s">
+        <v>710</v>
+      </c>
       <c r="N20" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>750</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>675</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-750</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3990</v>
+        <v>2990</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="5"/>
@@ -47484,7 +47488,7 @@
       </c>
       <c r="S20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3990</v>
+        <v>2990</v>
       </c>
       <c r="T20" s="1" t="str">
         <f>IF(H20="","",VLOOKUP(H20,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -47496,18 +47500,18 @@
       </c>
       <c r="V20" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="X20" s="1">
         <f t="shared" ca="1" si="10"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -47561,7 +47565,7 @@
       </c>
       <c r="S21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3990</v>
+        <v>2990</v>
       </c>
       <c r="T21" s="1" t="str">
         <f>IF(H21="","",VLOOKUP(H21,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -47584,7 +47588,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -47638,7 +47642,7 @@
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3990</v>
+        <v>2990</v>
       </c>
       <c r="T22" s="1" t="str">
         <f>IF(H22="","",VLOOKUP(H22,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -47661,7 +47665,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -47715,7 +47719,7 @@
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3990</v>
+        <v>2990</v>
       </c>
       <c r="T23" s="1" t="str">
         <f>IF(H23="","",VLOOKUP(H23,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -47738,7 +47742,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -47792,7 +47796,7 @@
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3990</v>
+        <v>2990</v>
       </c>
       <c r="T24" s="1" t="str">
         <f>IF(H24="","",VLOOKUP(H24,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -47815,7 +47819,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -47869,7 +47873,7 @@
       </c>
       <c r="S25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3990</v>
+        <v>2990</v>
       </c>
       <c r="T25" s="1" t="str">
         <f>IF(H25="","",VLOOKUP(H25,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -47892,7 +47896,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -47946,7 +47950,7 @@
       </c>
       <c r="S26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3990</v>
+        <v>2990</v>
       </c>
       <c r="T26" s="1" t="str">
         <f>IF(H26="","",VLOOKUP(H26,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -47969,7 +47973,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -48013,7 +48017,7 @@
       </c>
       <c r="Q27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="5"/>
@@ -48021,7 +48025,7 @@
       </c>
       <c r="S27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T27" s="1" t="str">
         <f>IF(H27="","",VLOOKUP(H27,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48044,7 +48048,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J28" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -48067,7 +48071,7 @@
       </c>
       <c r="S28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T28" s="1" t="str">
         <f>IF(H28="","",VLOOKUP(H28,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48090,7 +48094,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J29" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -48113,7 +48117,7 @@
       </c>
       <c r="S29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T29" s="1" t="str">
         <f>IF(H29="","",VLOOKUP(H29,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48136,7 +48140,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J30" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -48159,7 +48163,7 @@
       </c>
       <c r="S30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T30" s="1" t="str">
         <f>IF(H30="","",VLOOKUP(H30,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48182,7 +48186,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J31" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -48205,7 +48209,7 @@
       </c>
       <c r="S31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T31" s="1" t="str">
         <f>IF(H31="","",VLOOKUP(H31,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48228,7 +48232,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J32" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -48251,7 +48255,7 @@
       </c>
       <c r="S32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T32" s="1" t="str">
         <f>IF(H32="","",VLOOKUP(H32,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48274,7 +48278,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J33" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -48297,7 +48301,7 @@
       </c>
       <c r="S33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T33" s="1" t="str">
         <f>IF(H33="","",VLOOKUP(H33,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48320,7 +48324,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J34" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -48343,7 +48347,7 @@
       </c>
       <c r="S34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T34" s="1" t="str">
         <f>IF(H34="","",VLOOKUP(H34,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48366,7 +48370,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J35" s="11" t="str">
         <f t="shared" ref="J35:J66" ca="1" si="20">IF(M35="", IF(O35="","",X35+(INDIRECT("S" &amp; ROW() - 1) - S35)),IF(O35="", "", INDIRECT("S" &amp; ROW() - 1) - S35))</f>
         <v/>
@@ -48389,7 +48393,7 @@
       </c>
       <c r="S35" s="1">
         <f t="shared" ref="S35:S66" ca="1" si="25">IF(Q35 = 0, INDIRECT("S" &amp; ROW() - 1), Q35)</f>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T35" s="1" t="str">
         <f>IF(H35="","",VLOOKUP(H35,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48412,7 +48416,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48435,7 +48439,7 @@
       </c>
       <c r="S36" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T36" s="1" t="str">
         <f>IF(H36="","",VLOOKUP(H36,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48458,7 +48462,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J37" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48481,7 +48485,7 @@
       </c>
       <c r="S37" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T37" s="1" t="str">
         <f>IF(H37="","",VLOOKUP(H37,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48504,7 +48508,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J38" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48527,7 +48531,7 @@
       </c>
       <c r="S38" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T38" s="1" t="str">
         <f>IF(H38="","",VLOOKUP(H38,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48550,7 +48554,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J39" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48573,7 +48577,7 @@
       </c>
       <c r="S39" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T39" s="1" t="str">
         <f>IF(H39="","",VLOOKUP(H39,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48596,7 +48600,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48619,7 +48623,7 @@
       </c>
       <c r="S40" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T40" s="1" t="str">
         <f>IF(H40="","",VLOOKUP(H40,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48642,7 +48646,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48665,7 +48669,7 @@
       </c>
       <c r="S41" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T41" s="1" t="str">
         <f>IF(H41="","",VLOOKUP(H41,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48688,7 +48692,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48711,7 +48715,7 @@
       </c>
       <c r="S42" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T42" s="1" t="str">
         <f>IF(H42="","",VLOOKUP(H42,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48734,7 +48738,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48757,7 +48761,7 @@
       </c>
       <c r="S43" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T43" s="1" t="str">
         <f>IF(H43="","",VLOOKUP(H43,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48780,7 +48784,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48803,7 +48807,7 @@
       </c>
       <c r="S44" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T44" s="1" t="str">
         <f>IF(H44="","",VLOOKUP(H44,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48826,7 +48830,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48849,7 +48853,7 @@
       </c>
       <c r="S45" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T45" s="1" t="str">
         <f>IF(H45="","",VLOOKUP(H45,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48872,7 +48876,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48895,7 +48899,7 @@
       </c>
       <c r="S46" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T46" s="1" t="str">
         <f>IF(H46="","",VLOOKUP(H46,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48918,7 +48922,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48941,7 +48945,7 @@
       </c>
       <c r="S47" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T47" s="1" t="str">
         <f>IF(H47="","",VLOOKUP(H47,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -48964,7 +48968,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -48987,7 +48991,7 @@
       </c>
       <c r="S48" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T48" s="1" t="str">
         <f>IF(H48="","",VLOOKUP(H48,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49010,7 +49014,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49033,7 +49037,7 @@
       </c>
       <c r="S49" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T49" s="1" t="str">
         <f>IF(H49="","",VLOOKUP(H49,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49056,7 +49060,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49079,7 +49083,7 @@
       </c>
       <c r="S50" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T50" s="1" t="str">
         <f>IF(H50="","",VLOOKUP(H50,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49102,7 +49106,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49125,7 +49129,7 @@
       </c>
       <c r="S51" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T51" s="1" t="str">
         <f>IF(H51="","",VLOOKUP(H51,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49148,7 +49152,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49171,7 +49175,7 @@
       </c>
       <c r="S52" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T52" s="1" t="str">
         <f>IF(H52="","",VLOOKUP(H52,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49194,7 +49198,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49217,7 +49221,7 @@
       </c>
       <c r="S53" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T53" s="1" t="str">
         <f>IF(H53="","",VLOOKUP(H53,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49240,7 +49244,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49263,7 +49267,7 @@
       </c>
       <c r="S54" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T54" s="1" t="str">
         <f>IF(H54="","",VLOOKUP(H54,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49286,7 +49290,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49309,7 +49313,7 @@
       </c>
       <c r="S55" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T55" s="1" t="str">
         <f>IF(H55="","",VLOOKUP(H55,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49332,7 +49336,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49355,7 +49359,7 @@
       </c>
       <c r="S56" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T56" s="1" t="str">
         <f>IF(H56="","",VLOOKUP(H56,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49378,7 +49382,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49401,7 +49405,7 @@
       </c>
       <c r="S57" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T57" s="1" t="str">
         <f>IF(H57="","",VLOOKUP(H57,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49424,7 +49428,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49447,7 +49451,7 @@
       </c>
       <c r="S58" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T58" s="1" t="str">
         <f>IF(H58="","",VLOOKUP(H58,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49470,7 +49474,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49493,7 +49497,7 @@
       </c>
       <c r="S59" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T59" s="1" t="str">
         <f>IF(H59="","",VLOOKUP(H59,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49516,7 +49520,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49540,7 +49544,7 @@
       </c>
       <c r="S60" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T60" s="1" t="str">
         <f>IF(H60="","",VLOOKUP(H60,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49563,7 +49567,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49586,7 +49590,7 @@
       </c>
       <c r="S61" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T61" s="1" t="str">
         <f>IF(H61="","",VLOOKUP(H61,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49609,7 +49613,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49632,7 +49636,7 @@
       </c>
       <c r="S62" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T62" s="1" t="str">
         <f>IF(H62="","",VLOOKUP(H62,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49655,7 +49659,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49678,7 +49682,7 @@
       </c>
       <c r="S63" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T63" s="1" t="str">
         <f>IF(H63="","",VLOOKUP(H63,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49701,7 +49705,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49724,7 +49728,7 @@
       </c>
       <c r="S64" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T64" s="1" t="str">
         <f>IF(H64="","",VLOOKUP(H64,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49747,7 +49751,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49770,7 +49774,7 @@
       </c>
       <c r="S65" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T65" s="1" t="str">
         <f>IF(H65="","",VLOOKUP(H65,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49793,7 +49797,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49816,7 +49820,7 @@
       </c>
       <c r="S66" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T66" s="1" t="str">
         <f>IF(H66="","",VLOOKUP(H66,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49839,7 +49843,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ref="J67:J98" ca="1" si="30">IF(M67="", IF(O67="","",X67+(INDIRECT("S" &amp; ROW() - 1) - S67)),IF(O67="", "", INDIRECT("S" &amp; ROW() - 1) - S67))</f>
         <v/>
@@ -49862,7 +49866,7 @@
       </c>
       <c r="S67" s="1">
         <f t="shared" ref="S67:S98" ca="1" si="35">IF(Q67 = 0, INDIRECT("S" &amp; ROW() - 1), Q67)</f>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T67" s="1" t="str">
         <f>IF(H67="","",VLOOKUP(H67,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49885,7 +49889,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -49908,7 +49912,7 @@
       </c>
       <c r="S68" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T68" s="1" t="str">
         <f>IF(H68="","",VLOOKUP(H68,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49931,7 +49935,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -49954,7 +49958,7 @@
       </c>
       <c r="S69" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T69" s="1" t="str">
         <f>IF(H69="","",VLOOKUP(H69,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -49977,7 +49981,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50000,7 +50004,7 @@
       </c>
       <c r="S70" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T70" s="1" t="str">
         <f>IF(H70="","",VLOOKUP(H70,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50023,7 +50027,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50046,7 +50050,7 @@
       </c>
       <c r="S71" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T71" s="1" t="str">
         <f>IF(H71="","",VLOOKUP(H71,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50069,7 +50073,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50092,7 +50096,7 @@
       </c>
       <c r="S72" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T72" s="1" t="str">
         <f>IF(H72="","",VLOOKUP(H72,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50115,7 +50119,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50138,7 +50142,7 @@
       </c>
       <c r="S73" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T73" s="1" t="str">
         <f>IF(H73="","",VLOOKUP(H73,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50161,7 +50165,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50184,7 +50188,7 @@
       </c>
       <c r="S74" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T74" s="1" t="str">
         <f>IF(H74="","",VLOOKUP(H74,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50207,7 +50211,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50230,7 +50234,7 @@
       </c>
       <c r="S75" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T75" s="1" t="str">
         <f>IF(H75="","",VLOOKUP(H75,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50253,7 +50257,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50276,7 +50280,7 @@
       </c>
       <c r="S76" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T76" s="1" t="str">
         <f>IF(H76="","",VLOOKUP(H76,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50299,7 +50303,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50322,7 +50326,7 @@
       </c>
       <c r="S77" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T77" s="1" t="str">
         <f>IF(H77="","",VLOOKUP(H77,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50345,7 +50349,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50368,7 +50372,7 @@
       </c>
       <c r="S78" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T78" s="1" t="str">
         <f>IF(H78="","",VLOOKUP(H78,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50391,7 +50395,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50414,7 +50418,7 @@
       </c>
       <c r="S79" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T79" s="1" t="str">
         <f>IF(H79="","",VLOOKUP(H79,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50437,7 +50441,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50460,7 +50464,7 @@
       </c>
       <c r="S80" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T80" s="1" t="str">
         <f>IF(H80="","",VLOOKUP(H80,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50483,7 +50487,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50506,7 +50510,7 @@
       </c>
       <c r="S81" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T81" s="1" t="str">
         <f>IF(H81="","",VLOOKUP(H81,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50529,7 +50533,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50552,7 +50556,7 @@
       </c>
       <c r="S82" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T82" s="1" t="str">
         <f>IF(H82="","",VLOOKUP(H82,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50575,7 +50579,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50598,7 +50602,7 @@
       </c>
       <c r="S83" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T83" s="1" t="str">
         <f>IF(H83="","",VLOOKUP(H83,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50621,7 +50625,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50644,7 +50648,7 @@
       </c>
       <c r="S84" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T84" s="1" t="str">
         <f>IF(H84="","",VLOOKUP(H84,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50667,7 +50671,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50690,7 +50694,7 @@
       </c>
       <c r="S85" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T85" s="1" t="str">
         <f>IF(H85="","",VLOOKUP(H85,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50713,7 +50717,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50736,7 +50740,7 @@
       </c>
       <c r="S86" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T86" s="1" t="str">
         <f>IF(H86="","",VLOOKUP(H86,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50759,7 +50763,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50782,7 +50786,7 @@
       </c>
       <c r="S87" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T87" s="1" t="str">
         <f>IF(H87="","",VLOOKUP(H87,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50805,7 +50809,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50828,7 +50832,7 @@
       </c>
       <c r="S88" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T88" s="1" t="str">
         <f>IF(H88="","",VLOOKUP(H88,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50851,7 +50855,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50874,7 +50878,7 @@
       </c>
       <c r="S89" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T89" s="1" t="str">
         <f>IF(H89="","",VLOOKUP(H89,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50897,7 +50901,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50920,7 +50924,7 @@
       </c>
       <c r="S90" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T90" s="1" t="str">
         <f>IF(H90="","",VLOOKUP(H90,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50943,7 +50947,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -50966,7 +50970,7 @@
       </c>
       <c r="S91" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T91" s="1" t="str">
         <f>IF(H91="","",VLOOKUP(H91,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -50989,7 +50993,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -51012,7 +51016,7 @@
       </c>
       <c r="S92" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T92" s="1" t="str">
         <f>IF(H92="","",VLOOKUP(H92,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51035,7 +51039,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -51058,7 +51062,7 @@
       </c>
       <c r="S93" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T93" s="1" t="str">
         <f>IF(H93="","",VLOOKUP(H93,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51081,7 +51085,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J94" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -51104,7 +51108,7 @@
       </c>
       <c r="S94" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T94" s="1" t="str">
         <f>IF(H94="","",VLOOKUP(H94,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51127,7 +51131,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -51150,7 +51154,7 @@
       </c>
       <c r="S95" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T95" s="1" t="str">
         <f>IF(H95="","",VLOOKUP(H95,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51173,7 +51177,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J96" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -51196,7 +51200,7 @@
       </c>
       <c r="S96" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T96" s="1" t="str">
         <f>IF(H96="","",VLOOKUP(H96,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51219,7 +51223,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J97" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -51242,7 +51246,7 @@
       </c>
       <c r="S97" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T97" s="1" t="str">
         <f>IF(H97="","",VLOOKUP(H97,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51265,7 +51269,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J98" s="11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
@@ -51288,7 +51292,7 @@
       </c>
       <c r="S98" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T98" s="1" t="str">
         <f>IF(H98="","",VLOOKUP(H98,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51311,7 +51315,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J99" s="11" t="str">
         <f t="shared" ref="J99:J123" ca="1" si="41">IF(M99="", IF(O99="","",X99+(INDIRECT("S" &amp; ROW() - 1) - S99)),IF(O99="", "", INDIRECT("S" &amp; ROW() - 1) - S99))</f>
         <v/>
@@ -51334,7 +51338,7 @@
       </c>
       <c r="S99" s="1">
         <f t="shared" ref="S99:S123" ca="1" si="45">IF(Q99 = 0, INDIRECT("S" &amp; ROW() - 1), Q99)</f>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T99" s="1" t="str">
         <f>IF(H99="","",VLOOKUP(H99,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51357,7 +51361,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J100" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51380,7 +51384,7 @@
       </c>
       <c r="S100" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T100" s="1" t="str">
         <f>IF(H100="","",VLOOKUP(H100,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51403,7 +51407,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J101" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51426,7 +51430,7 @@
       </c>
       <c r="S101" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T101" s="1" t="str">
         <f>IF(H101="","",VLOOKUP(H101,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51449,7 +51453,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J102" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51472,7 +51476,7 @@
       </c>
       <c r="S102" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T102" s="1" t="str">
         <f>IF(H102="","",VLOOKUP(H102,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51495,7 +51499,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J103" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51518,7 +51522,7 @@
       </c>
       <c r="S103" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T103" s="1" t="str">
         <f>IF(H103="","",VLOOKUP(H103,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51541,7 +51545,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J104" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51564,7 +51568,7 @@
       </c>
       <c r="S104" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T104" s="1" t="str">
         <f>IF(H104="","",VLOOKUP(H104,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51587,7 +51591,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J105" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51610,7 +51614,7 @@
       </c>
       <c r="S105" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T105" s="1" t="str">
         <f>IF(H105="","",VLOOKUP(H105,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51633,7 +51637,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J106" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51656,7 +51660,7 @@
       </c>
       <c r="S106" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T106" s="1" t="str">
         <f>IF(H106="","",VLOOKUP(H106,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51679,7 +51683,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J107" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51702,7 +51706,7 @@
       </c>
       <c r="S107" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T107" s="1" t="str">
         <f>IF(H107="","",VLOOKUP(H107,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51725,7 +51729,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J108" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51748,7 +51752,7 @@
       </c>
       <c r="S108" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T108" s="1" t="str">
         <f>IF(H108="","",VLOOKUP(H108,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51771,7 +51775,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J109" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51794,7 +51798,7 @@
       </c>
       <c r="S109" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T109" s="1" t="str">
         <f>IF(H109="","",VLOOKUP(H109,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51817,7 +51821,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J110" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51840,7 +51844,7 @@
       </c>
       <c r="S110" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T110" s="1" t="str">
         <f>IF(H110="","",VLOOKUP(H110,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51863,7 +51867,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J111" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51886,7 +51890,7 @@
       </c>
       <c r="S111" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T111" s="1" t="str">
         <f>IF(H111="","",VLOOKUP(H111,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51909,7 +51913,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J112" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51932,7 +51936,7 @@
       </c>
       <c r="S112" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T112" s="1" t="str">
         <f>IF(H112="","",VLOOKUP(H112,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -51955,7 +51959,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J113" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -51978,7 +51982,7 @@
       </c>
       <c r="S113" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T113" s="1" t="str">
         <f>IF(H113="","",VLOOKUP(H113,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52001,7 +52005,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J114" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52024,7 +52028,7 @@
       </c>
       <c r="S114" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T114" s="1" t="str">
         <f>IF(H114="","",VLOOKUP(H114,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52047,7 +52051,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J115" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52070,7 +52074,7 @@
       </c>
       <c r="S115" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T115" s="1" t="str">
         <f>IF(H115="","",VLOOKUP(H115,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52093,7 +52097,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J116" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52116,7 +52120,7 @@
       </c>
       <c r="S116" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T116" s="1" t="str">
         <f>IF(H116="","",VLOOKUP(H116,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52139,7 +52143,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J117" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52162,7 +52166,7 @@
       </c>
       <c r="S117" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T117" s="1" t="str">
         <f>IF(H117="","",VLOOKUP(H117,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52185,7 +52189,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J118" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52208,7 +52212,7 @@
       </c>
       <c r="S118" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T118" s="1" t="str">
         <f>IF(H118="","",VLOOKUP(H118,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52231,7 +52235,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J119" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52254,7 +52258,7 @@
       </c>
       <c r="S119" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T119" s="1" t="str">
         <f>IF(H119="","",VLOOKUP(H119,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52277,7 +52281,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J120" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52300,7 +52304,7 @@
       </c>
       <c r="S120" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T120" s="1" t="str">
         <f>IF(H120="","",VLOOKUP(H120,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52323,7 +52327,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J121" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52346,7 +52350,7 @@
       </c>
       <c r="S121" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T121" s="1" t="str">
         <f>IF(H121="","",VLOOKUP(H121,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52369,7 +52373,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J122" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52392,7 +52396,7 @@
       </c>
       <c r="S122" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T122" s="1" t="str">
         <f>IF(H122="","",VLOOKUP(H122,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52415,7 +52419,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J123" s="11" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
@@ -52438,7 +52442,7 @@
       </c>
       <c r="S123" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>4982</v>
+        <v>3982</v>
       </c>
       <c r="T123" s="1" t="str">
         <f>IF(H123="","",VLOOKUP(H123,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -52524,7 +52528,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -52533,7 +52537,7 @@
           </x14:formula2>
           <xm:sqref>B2:B123</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -52542,7 +52546,7 @@
           </x14:formula2>
           <xm:sqref>E2:F123</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -52551,7 +52555,7 @@
           </x14:formula2>
           <xm:sqref>L1:L123</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>'Вода SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -52567,41 +52571,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>653</v>
       </c>
@@ -52672,7 +52673,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <f ca="1">IF(O2="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
         <v>6</v>
@@ -52750,7 +52751,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="str">
         <f ca="1">IF(O3="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R3)))))</f>
         <v>-</v>
@@ -52825,7 +52826,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <f ca="1">IF(O4="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R4)))))</f>
         <v>7</v>
@@ -52902,7 +52903,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <f ca="1">IF(O5="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R5)))))</f>
         <v>7</v>
@@ -52979,7 +52980,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <f ca="1">IF(O6="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R6)))))</f>
         <v>7</v>
@@ -53056,7 +53057,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="str">
         <f ca="1">IF(O7="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R7)))))</f>
         <v>-</v>
@@ -53131,7 +53132,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <f ca="1">IF(O8="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
         <v>8</v>
@@ -53208,7 +53209,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="str">
         <f ca="1">IF(O9="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R9)))))</f>
         <v>-</v>
@@ -53283,7 +53284,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <f ca="1">IF(O10="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R10)))))</f>
         <v>9</v>
@@ -53360,7 +53361,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <f ca="1">IF(O11="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R11)))))</f>
         <v>9</v>
@@ -53439,7 +53440,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="str">
         <f ca="1">IF(O12="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R12)))))</f>
         <v>-</v>
@@ -53514,7 +53515,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <f ca="1">IF(O13="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R13)))))</f>
         <v>10</v>
@@ -53591,7 +53592,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <f ca="1">IF(O14="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R14)))))</f>
         <v>10</v>
@@ -53668,7 +53669,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <f ca="1">IF(O15="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R15)))))</f>
         <v>10</v>
@@ -53747,7 +53748,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="str">
         <f ca="1">IF(O16="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R16)))))</f>
         <v>-</v>
@@ -53822,7 +53823,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <f ca="1">IF(O17="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R17)))))</f>
         <v>11</v>
@@ -53899,7 +53900,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <f ca="1">IF(O18="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R18)))))</f>
         <v>11</v>
@@ -53976,7 +53977,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <f ca="1">IF(O19="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R19)))))</f>
         <v>11</v>
@@ -54055,7 +54056,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="str">
         <f ca="1">IF(O20="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R20)))))</f>
         <v>-</v>
@@ -54130,7 +54131,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <f ca="1">IF(O21="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R21)))))</f>
         <v>12</v>
@@ -54209,7 +54210,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="str">
         <f ca="1">IF(O22="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R22)))))</f>
         <v>-</v>
@@ -54286,7 +54287,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34">
         <f ca="1">IF(O23="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R23)))))</f>
         <v>13</v>
@@ -54365,7 +54366,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="str">
         <f ca="1">IF(O24="-", "-", 1 + MAX(Вода!$A$2:$A$101) + SUM(INDIRECT(ADDRESS(2,COLUMN(R24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R24)))))</f>
         <v>-</v>
@@ -54442,7 +54443,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J25" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54488,7 +54489,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J26" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54534,7 +54535,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J27" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54580,7 +54581,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J28" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54626,7 +54627,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J29" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54672,7 +54673,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J30" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54718,7 +54719,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J31" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54764,7 +54765,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J32" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54810,7 +54811,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J33" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54856,7 +54857,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J34" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54902,7 +54903,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J35" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54948,7 +54949,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="11" t="str">
         <f t="shared" ref="J36:J67" ca="1" si="34">IF(M36="", IF(O36="","",X36+(INDIRECT("S" &amp; ROW() - 1) - S36)),IF(O36="", "", INDIRECT("S" &amp; ROW() - 1) - S36))</f>
         <v/>
@@ -54994,7 +54995,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J37" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55040,7 +55041,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J38" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55086,7 +55087,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J39" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55132,7 +55133,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55178,7 +55179,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55224,7 +55225,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55270,7 +55271,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55316,7 +55317,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55362,7 +55363,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55408,7 +55409,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55454,7 +55455,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55500,7 +55501,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55546,7 +55547,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55592,7 +55593,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55638,7 +55639,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55684,7 +55685,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55730,7 +55731,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55776,7 +55777,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55822,7 +55823,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55868,7 +55869,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55914,7 +55915,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -55960,7 +55961,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56006,7 +56007,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56052,7 +56053,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56098,7 +56099,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56145,7 +56146,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56191,7 +56192,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56237,7 +56238,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56283,7 +56284,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56329,7 +56330,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56375,7 +56376,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -56421,7 +56422,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ref="J68:J99" ca="1" si="44">IF(M68="", IF(O68="","",X68+(INDIRECT("S" &amp; ROW() - 1) - S68)),IF(O68="", "", INDIRECT("S" &amp; ROW() - 1) - S68))</f>
         <v/>
@@ -56467,7 +56468,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56513,7 +56514,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56559,7 +56560,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56605,7 +56606,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56651,7 +56652,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56697,7 +56698,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56743,7 +56744,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56789,7 +56790,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56835,7 +56836,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56881,7 +56882,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56927,7 +56928,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -56973,7 +56974,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57019,7 +57020,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57065,7 +57066,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57111,7 +57112,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57157,7 +57158,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57203,7 +57204,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57249,7 +57250,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57295,7 +57296,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57341,7 +57342,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57387,7 +57388,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57433,7 +57434,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57479,7 +57480,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57525,7 +57526,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57571,7 +57572,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57617,7 +57618,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J94" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57663,7 +57664,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57709,7 +57710,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J96" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57755,7 +57756,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J97" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57801,7 +57802,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J98" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57847,7 +57848,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J99" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -57893,7 +57894,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J100" s="11" t="str">
         <f t="shared" ref="J100:J124" ca="1" si="55">IF(M100="", IF(O100="","",X100+(INDIRECT("S" &amp; ROW() - 1) - S100)),IF(O100="", "", INDIRECT("S" &amp; ROW() - 1) - S100))</f>
         <v/>
@@ -57939,7 +57940,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J101" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -57985,7 +57986,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J102" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58031,7 +58032,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J103" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58077,7 +58078,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J104" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58123,7 +58124,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J105" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58169,7 +58170,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J106" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58215,7 +58216,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J107" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58261,7 +58262,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J108" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58307,7 +58308,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J109" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58353,7 +58354,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J110" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58399,7 +58400,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J111" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58445,7 +58446,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J112" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58491,7 +58492,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J113" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58537,7 +58538,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J114" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58583,7 +58584,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J115" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58629,7 +58630,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J116" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58675,7 +58676,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J117" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58721,7 +58722,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J118" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58767,7 +58768,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J119" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58813,7 +58814,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J120" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58859,7 +58860,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J121" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58905,7 +58906,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J122" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58951,7 +58952,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J123" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -58997,7 +58998,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J124" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -59238,7 +59239,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -59247,7 +59248,7 @@
           </x14:formula2>
           <xm:sqref>B2:B124</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -59256,7 +59257,7 @@
           </x14:formula2>
           <xm:sqref>E2:F124</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>'Соль SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -59265,7 +59266,7 @@
           </x14:formula2>
           <xm:sqref>H2:H124</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -59281,29 +59282,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>686</v>
       </c>
@@ -59315,20 +59316,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AMK5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>223</v>
       </c>
@@ -59336,7 +59337,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>224</v>
       </c>
@@ -59344,7 +59345,7 @@
         <v>-45.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>225</v>
       </c>
@@ -59352,7 +59353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>226</v>
       </c>
@@ -59371,16 +59372,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -59393,104 +59394,104 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>694</v>
       </c>
@@ -59502,20 +59503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>675</v>
       </c>
@@ -59523,7 +59524,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>539</v>
       </c>
@@ -59531,7 +59532,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>242</v>
       </c>
@@ -59539,7 +59540,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>546</v>
       </c>
@@ -59547,7 +59548,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>232</v>
       </c>
@@ -59555,7 +59556,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>695</v>
       </c>
@@ -59563,7 +59564,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>231</v>
       </c>
@@ -59571,7 +59572,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>696</v>
       </c>
@@ -59579,7 +59580,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>233</v>
       </c>
@@ -59587,7 +59588,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>551</v>
       </c>
@@ -59595,7 +59596,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>234</v>
       </c>
@@ -59603,7 +59604,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>545</v>
       </c>
@@ -59611,7 +59612,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>235</v>
       </c>
@@ -59619,7 +59620,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>549</v>
       </c>
@@ -59627,7 +59628,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>229</v>
       </c>
@@ -59635,7 +59636,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>552</v>
       </c>
@@ -59643,7 +59644,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>247</v>
       </c>
@@ -59651,7 +59652,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>553</v>
       </c>
@@ -59659,7 +59660,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>245</v>
       </c>
@@ -59667,7 +59668,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>697</v>
       </c>
@@ -59675,7 +59676,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>243</v>
       </c>
@@ -59683,7 +59684,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>556</v>
       </c>
@@ -59691,7 +59692,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>251</v>
       </c>
@@ -59699,7 +59700,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>698</v>
       </c>
@@ -59707,7 +59708,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>252</v>
       </c>
@@ -59715,7 +59716,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>699</v>
       </c>
@@ -59723,7 +59724,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
         <v>237</v>
       </c>
@@ -59731,7 +59732,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>700</v>
       </c>
@@ -59739,7 +59740,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>238</v>
       </c>
@@ -59747,7 +59748,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>538</v>
       </c>
@@ -59755,7 +59756,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>701</v>
       </c>
@@ -59763,7 +59764,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>240</v>
       </c>
@@ -59771,7 +59772,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>702</v>
       </c>
@@ -59779,7 +59780,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>239</v>
       </c>
@@ -59787,7 +59788,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>703</v>
       </c>
@@ -59795,7 +59796,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
         <v>230</v>
       </c>
@@ -59803,7 +59804,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>704</v>
       </c>
@@ -59811,7 +59812,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>236</v>
       </c>
@@ -59819,7 +59820,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
         <v>705</v>
       </c>
@@ -59827,7 +59828,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>246</v>
       </c>
@@ -59835,7 +59836,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>706</v>
       </c>
@@ -59843,7 +59844,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
         <v>250</v>
       </c>
@@ -59851,7 +59852,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>707</v>
       </c>
@@ -59859,7 +59860,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>248</v>
       </c>
@@ -59867,7 +59868,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>708</v>
       </c>
@@ -59875,7 +59876,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
         <v>244</v>
       </c>
@@ -59883,7 +59884,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>709</v>
       </c>
@@ -59891,7 +59892,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="31" t="s">
         <v>249</v>
       </c>
@@ -59899,7 +59900,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="31" t="s">
         <v>544</v>
       </c>
@@ -59907,7 +59908,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="31" t="s">
         <v>241</v>
       </c>
